--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,35 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\elec\BGDPbES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257288C8-88AB-4482-B0B3-D67DC1B2D04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Notes:</t>
-  </si>
-  <si>
-    <t>coal</t>
   </si>
   <si>
     <t>nuclear</t>
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>wind</t>
   </si>
   <si>
     <t>solar PV</t>
@@ -76,11 +87,35 @@
   <si>
     <t>of the default amount or the amount specified here by the user.</t>
   </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>BAU Guaranteed Dispatch (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,11 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,6 +171,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -181,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +255,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +307,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,16 +499,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -443,37 +520,37 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -483,13 +560,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -497,7 +576,10 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -609,7 +691,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -757,7 +839,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -905,1043 +987,1043 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK12" si="2">$B9</f>
-        <v>0</v>
+        <f t="shared" ref="D9:AK14" si="2">$B9</f>
+        <v>1</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2089,7 +2171,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2233,9 +2315,680 @@
       <c r="AK12">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>$B13</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>$B14</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:AK17" si="3">C17</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>